--- a/non_code/IB3-project.xlsx
+++ b/non_code/IB3-project.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81E3341-D862-461C-BC73-08275BD569BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBF2CA8-4605-4654-B846-0B667C988822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="1" r:id="rId1"/>
     <sheet name="bestellijst" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">planning!$3:$4</definedName>
     <definedName name="période_sélectionnée">planning!$H$2</definedName>
     <definedName name="PériodeDansPlan">planning!A$4=MEDIAN(planning!A$4,planning!$C1,planning!$C1+planning!$D1-1)</definedName>
     <definedName name="PériodeDansRéel">planning!A$4=MEDIAN(planning!A$4,planning!$E1,planning!$E1+planning!$F1-1)</definedName>
     <definedName name="Plan">PériodeDansPlan*(planning!$C1&gt;0)</definedName>
     <definedName name="PourcentageAccompli">PourcentageAccompliAuDelà*PériodeDansPlan</definedName>
     <definedName name="PourcentageAccompliAuDelà">(planning!A$4=MEDIAN(planning!A$4,planning!$E1,planning!$E1+planning!$F1)*(planning!$E1&gt;0))*((planning!A$4&lt;(INT(planning!$E1+planning!$F1*planning!$G1)))+(planning!A$4=planning!$E1))*(planning!$G1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">planning!$3:$4</definedName>
     <definedName name="Réel">(PériodeDansRéel*(planning!$E1&gt;0))*PériodeDansPlan</definedName>
     <definedName name="RéelAuDelà">PériodeDansRéel*(planning!$E1&gt;0)</definedName>
     <definedName name="TitreRégion..BO60">planning!$B$3:$B$4</definedName>
@@ -47,13 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
-  <si>
-    <t>Planificateur de projet</t>
-  </si>
-  <si>
-    <t>Sélectionnez une période à mettre en évidence à droite.  Une légende décrivant le graphique suit.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Periode om het af te krijgen</t>
   </si>
@@ -62,36 +56,6 @@
   </si>
   <si>
     <t>Effectieve start</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>accompli</t>
-    </r>
   </si>
   <si>
     <r>
@@ -145,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>ACTIVITÉ</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -215,13 +176,49 @@
   </si>
   <si>
     <t>tril motor</t>
+  </si>
+  <si>
+    <t>Project - IB 3</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>accomplisched</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -647,41 +644,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -691,20 +688,20 @@
     <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8"/>
+    <cellStyle name="Kop 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Verklarende tekst" xfId="12" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1095,11 +1092,11 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -1111,9 +1108,9 @@
     <col min="8" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1121,85 +1118,83 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="29" t="s">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="33" t="s">
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="33" t="s">
+      <c r="E3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="H3" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1221,13 +1216,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1313,9 +1308,9 @@
       <c r="BN4" s="3"/>
       <c r="BO4" s="3"/>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1329,9 +1324,9 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1343,9 +1338,9 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -1357,9 +1352,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1371,9 +1366,9 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1381,9 +1376,9 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1391,9 +1386,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1401,9 +1396,9 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1415,9 +1410,9 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
@@ -1429,9 +1424,9 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -1443,7 +1438,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1451,7 +1446,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1459,7 +1454,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1467,7 +1462,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1475,7 +1470,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1483,7 +1478,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1491,7 +1486,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1499,7 +1494,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1507,7 +1502,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1515,7 +1510,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1523,7 +1518,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1531,7 +1526,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1539,7 +1534,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1547,7 +1542,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1555,7 +1550,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1563,7 +1558,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1659,11 +1654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1623D-8675-4455-A819-AFBC8D9D911B}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
@@ -1672,103 +1667,103 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.65" thickTop="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
     </row>
   </sheetData>
